--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H2">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I2">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J2">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N2">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q2">
-        <v>7.935484727916111</v>
+        <v>0.09039800284533334</v>
       </c>
       <c r="R2">
-        <v>71.419362551245</v>
+        <v>0.8135820256080001</v>
       </c>
       <c r="S2">
-        <v>0.111131287691676</v>
+        <v>0.003622741603931046</v>
       </c>
       <c r="T2">
-        <v>0.111131287691676</v>
+        <v>0.003622741603931046</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H3">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I3">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J3">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q3">
-        <v>27.40487689080878</v>
+        <v>0.8483772511796667</v>
       </c>
       <c r="R3">
-        <v>246.643892017279</v>
+        <v>7.635395260617</v>
       </c>
       <c r="S3">
-        <v>0.383787426014895</v>
+        <v>0.03399910912783954</v>
       </c>
       <c r="T3">
-        <v>0.383787426014895</v>
+        <v>0.03399910912783954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.882106333333333</v>
+        <v>0.120179</v>
       </c>
       <c r="H4">
-        <v>11.646319</v>
+        <v>0.360537</v>
       </c>
       <c r="I4">
-        <v>0.6257373677154582</v>
+        <v>0.04921086431616203</v>
       </c>
       <c r="J4">
-        <v>0.6257373677154581</v>
+        <v>0.04921086431616202</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N4">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q4">
-        <v>9.34128860176811</v>
+        <v>0.2891797973776667</v>
       </c>
       <c r="R4">
-        <v>84.07159741591299</v>
+        <v>2.602618176399</v>
       </c>
       <c r="S4">
-        <v>0.1308186540088871</v>
+        <v>0.01158901358439143</v>
       </c>
       <c r="T4">
-        <v>0.1308186540088871</v>
+        <v>0.01158901358439143</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H5">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I5">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J5">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N5">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O5">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P5">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q5">
-        <v>3.112177657600555</v>
+        <v>1.145219138047111</v>
       </c>
       <c r="R5">
-        <v>28.009598918405</v>
+        <v>10.306972242424</v>
       </c>
       <c r="S5">
-        <v>0.04358401817569094</v>
+        <v>0.04589518447791128</v>
       </c>
       <c r="T5">
-        <v>0.04358401817569094</v>
+        <v>0.04589518447791129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H6">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I6">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J6">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q6">
         <v>10.74778019152789</v>
       </c>
       <c r="R6">
-        <v>96.73002172375099</v>
+        <v>96.73002172375101</v>
       </c>
       <c r="S6">
-        <v>0.1505156513388238</v>
+        <v>0.4307222419102826</v>
       </c>
       <c r="T6">
-        <v>0.1505156513388238</v>
+        <v>0.4307222419102826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.522503666666666</v>
+        <v>1.522503666666667</v>
       </c>
       <c r="H7">
-        <v>4.567511</v>
+        <v>4.567511000000001</v>
       </c>
       <c r="I7">
-        <v>0.2454047764062963</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="J7">
-        <v>0.2454047764062962</v>
+        <v>0.6234343883806033</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N7">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q7">
-        <v>3.663512775388555</v>
+        <v>3.663512775388556</v>
       </c>
       <c r="R7">
-        <v>32.97161497849699</v>
+        <v>32.97161497849701</v>
       </c>
       <c r="S7">
-        <v>0.05130510689178153</v>
+        <v>0.1468169619924094</v>
       </c>
       <c r="T7">
-        <v>0.05130510689178153</v>
+        <v>0.1468169619924094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.398322</v>
       </c>
       <c r="I8">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J8">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N8">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O8">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P8">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q8">
-        <v>1.634151323145556</v>
+        <v>0.6013350057831111</v>
       </c>
       <c r="R8">
-        <v>14.70736190831</v>
+        <v>5.412015052048</v>
       </c>
       <c r="S8">
-        <v>0.02288522340486086</v>
+        <v>0.02409877734885216</v>
       </c>
       <c r="T8">
-        <v>0.02288522340486086</v>
+        <v>0.02409877734885217</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.398322</v>
       </c>
       <c r="I9">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J9">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q9">
         <v>5.643475775866889</v>
@@ -1004,10 +1004,10 @@
         <v>50.791281982802</v>
       </c>
       <c r="S9">
-        <v>0.0790331972818961</v>
+        <v>0.2261648912641376</v>
       </c>
       <c r="T9">
-        <v>0.0790331972818961</v>
+        <v>0.2261648912641377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.398322</v>
       </c>
       <c r="I10">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="J10">
-        <v>0.1288578558782456</v>
+        <v>0.3273547473032347</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N10">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q10">
-        <v>1.923647975121555</v>
+        <v>1.923647975121556</v>
       </c>
       <c r="R10">
         <v>17.312831776094</v>
       </c>
       <c r="S10">
-        <v>0.02693943519148859</v>
+        <v>0.0770910786902449</v>
       </c>
       <c r="T10">
-        <v>0.02693943519148859</v>
+        <v>0.0770910786902449</v>
       </c>
     </row>
   </sheetData>
